--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>net_idx</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>TextGlyph_01</t>
+  </si>
+  <si>
+    <t>TextGlyph_02</t>
   </si>
 </sst>
 </file>
@@ -668,13 +675,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -693,8 +700,11 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -711,13 +721,16 @@
         <v>38</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -738,6 +751,48 @@
       </c>
       <c r="G3">
         <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E93B1-1659-4D25-BB7D-E8AB1566BA54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>net_idx</t>
   </si>
@@ -141,13 +147,16 @@
   </si>
   <si>
     <t>TextGlyph_02</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,13 +204,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -210,6 +233,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -256,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +319,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +371,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,14 +564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,14 +681,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
@@ -666,6 +735,9 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -674,14 +746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -704,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -730,7 +802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -762,14 +834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E93B1-1659-4D25-BB7D-E8AB1566BA54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,6 +45,27 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -65,21 +81,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -101,6 +102,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -122,7 +126,13 @@
     <t>rxn_reversible</t>
   </si>
   <si>
-    <t>txt_content</t>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
   </si>
   <si>
     <t>text_content1</t>
@@ -149,14 +159,41 @@
     <t>TextGlyph_02</t>
   </si>
   <si>
-    <t>stroke_color</t>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,27 +241,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -233,14 +256,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -287,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,27 +334,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,24 +368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,6 +574,27 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -603,34 +603,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -639,13 +639,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -657,22 +657,28 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -681,16 +687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,43 +705,52 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -746,77 +759,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -825,7 +844,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -834,16 +856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -861,10 +883,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>net_idx</t>
   </si>
@@ -135,6 +135,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>text_content1</t>
   </si>
   <si>
@@ -160,33 +169,6 @@
   </si>
   <si>
     <t>['middle', 'middle']</t>
-  </si>
-  <si>
-    <t>_line_ending_default_NONE_</t>
-  </si>
-  <si>
-    <t>_line_ending_default_</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[15.0, 12.0]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
-  </si>
-  <si>
-    <t>['polygon']</t>
-  </si>
-  <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -688,13 +670,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T1"/>
+  <dimension ref="B1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,6 +733,15 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -797,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -815,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -826,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -844,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -896,13 +887,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -920,52 +911,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>net_idx</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
   </si>
   <si>
     <t>text_content1</t>
@@ -670,13 +673,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W1"/>
+  <dimension ref="B1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:23">
+    <row r="1" spans="2:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,6 +745,18 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -788,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -806,10 +821,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -817,16 +832,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -835,10 +850,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>net_idx</t>
   </si>
@@ -147,6 +148,12 @@
     <t>center_size</t>
   </si>
   <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
     <t>text_content1</t>
   </si>
   <si>
@@ -172,6 +179,12 @@
   </si>
   <si>
     <t>['middle', 'middle']</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -673,13 +686,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AA1"/>
+  <dimension ref="B1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,6 +770,12 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -803,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -821,10 +840,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -832,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -850,10 +869,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +921,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -926,6 +945,51 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -80,15 +89,6 @@
   </si>
   <si>
     <t>shape_idx</t>
-  </si>
-  <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
   </si>
   <si>
     <t>sources</t>
@@ -542,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+  <dimension ref="B1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,6 +593,15 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -613,22 +622,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -637,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -664,13 +673,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -763,13 +772,13 @@
         <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>42</v>
@@ -890,7 +899,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -908,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +950,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>

--- a/tests/initiate_excel_files/test_textGlyph.xlsx
+++ b/tests/initiate_excel_files/test_textGlyph.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>net_idx</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>sources</t>
@@ -611,13 +614,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X1"/>
+  <dimension ref="B1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,6 +689,9 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -712,64 +718,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -781,10 +787,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -831,16 +837,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -849,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -860,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -878,10 +884,10 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +980,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
